--- a/Packages/cn.etetet.wow/Luban/Config/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F70B3-E7A0-C044-937D-BDE54D7498DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1BD515-96F9-664D-9926-75186FCDDFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="320" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>Virtual</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phase</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -338,20 +342,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -668,10 +672,10 @@
     <col min="29" max="29" width="6.1640625" customWidth="1"/>
     <col min="30" max="32" width="5.1640625" customWidth="1"/>
     <col min="33" max="33" width="6.1640625" customWidth="1"/>
-    <col min="34" max="36" width="5.1640625" customWidth="1"/>
+    <col min="34" max="38" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,38 +698,40 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -748,38 +754,40 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -792,38 +800,40 @@
         <v>13</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -848,64 +858,68 @@
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="8" t="s">
+      <c r="N4" s="8"/>
+      <c r="O4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="11" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="10" t="s">
+      <c r="R4" s="12"/>
+      <c r="S4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="11" t="s">
+      <c r="T4" s="8"/>
+      <c r="U4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="10" t="s">
+      <c r="V4" s="13"/>
+      <c r="W4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="11" t="s">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="10" t="s">
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="11" t="s">
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="10" t="s">
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="11" t="s">
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="10" t="s">
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="13"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL4" s="9"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:38">
       <c r="B5" s="2">
         <v>1001</v>
       </c>
@@ -928,25 +942,25 @@
       <c r="I5" s="2">
         <v>1010</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="2">
         <v>1011</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="2">
         <v>25200</v>
       </c>
       <c r="M5" s="6">
         <v>1012</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="2">
         <v>10000</v>
       </c>
       <c r="O5" s="6">
         <v>1014</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="2">
         <v>0</v>
       </c>
       <c r="Q5" s="6">
@@ -982,7 +996,7 @@
       <c r="AA5" s="7">
         <v>1009</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="2">
         <v>0</v>
       </c>
       <c r="AC5" s="7">
@@ -1009,8 +1023,14 @@
       <c r="AJ5" s="5">
         <v>1000</v>
       </c>
+      <c r="AK5" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL5" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:38">
       <c r="B6" s="2">
         <v>1002</v>
       </c>
@@ -1035,25 +1055,25 @@
       <c r="I6" s="2">
         <v>1010</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="2">
         <v>1011</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="2">
         <v>25200</v>
       </c>
       <c r="M6" s="6">
         <v>1012</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="2">
         <v>-50000</v>
       </c>
       <c r="O6" s="6">
         <v>1014</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="2">
         <v>90</v>
       </c>
       <c r="Q6" s="6">
@@ -1089,7 +1109,7 @@
       <c r="AA6" s="7">
         <v>1009</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB6" s="2">
         <v>300003</v>
       </c>
       <c r="AC6" s="7">
@@ -1116,8 +1136,14 @@
       <c r="AJ6" s="5">
         <v>100</v>
       </c>
+      <c r="AK6" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL6" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:38">
       <c r="B7" s="2">
         <v>1003</v>
       </c>
@@ -1142,25 +1168,25 @@
       <c r="I7" s="2">
         <v>1010</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="2">
         <v>1011</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="2">
         <v>25200</v>
       </c>
       <c r="M7" s="6">
         <v>1012</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="2">
         <v>0</v>
       </c>
       <c r="O7" s="6">
         <v>1014</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="2">
         <v>270</v>
       </c>
       <c r="Q7" s="6">
@@ -1196,7 +1222,7 @@
       <c r="AA7" s="7">
         <v>1009</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB7" s="2">
         <v>300003</v>
       </c>
       <c r="AC7" s="7">
@@ -1223,8 +1249,14 @@
       <c r="AJ7" s="5">
         <v>100</v>
       </c>
+      <c r="AK7" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL7" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:38">
       <c r="B8" s="2">
         <v>1004</v>
       </c>
@@ -1252,7 +1284,7 @@
       <c r="J8" s="5">
         <v>21600</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="2">
         <v>1011</v>
       </c>
       <c r="L8" s="5">
@@ -1267,7 +1299,7 @@
       <c r="O8" s="6">
         <v>1014</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="2">
         <v>0</v>
       </c>
       <c r="Q8" s="6">
@@ -1303,7 +1335,7 @@
       <c r="AA8" s="7">
         <v>1009</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AB8" s="2">
         <v>300000</v>
       </c>
       <c r="AC8" s="7">
@@ -1330,8 +1362,14 @@
       <c r="AJ8" s="5">
         <v>100</v>
       </c>
+      <c r="AK8" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL8" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:38">
       <c r="B9" s="2">
         <v>1005</v>
       </c>
@@ -1359,7 +1397,7 @@
       <c r="J9" s="5">
         <v>56000</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="2">
         <v>1011</v>
       </c>
       <c r="L9" s="5">
@@ -1374,7 +1412,7 @@
       <c r="O9" s="6">
         <v>1014</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="2">
         <v>0</v>
       </c>
       <c r="Q9" s="6">
@@ -1410,7 +1448,7 @@
       <c r="AA9" s="7">
         <v>1009</v>
       </c>
-      <c r="AB9" s="14">
+      <c r="AB9" s="2">
         <v>300000</v>
       </c>
       <c r="AC9" s="7">
@@ -1437,8 +1475,14 @@
       <c r="AJ9" s="5">
         <v>100</v>
       </c>
+      <c r="AK9" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:38">
       <c r="B10" s="2">
         <v>1006</v>
       </c>
@@ -1466,7 +1510,7 @@
       <c r="J10" s="5">
         <v>36310</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="2">
         <v>1011</v>
       </c>
       <c r="L10" s="5">
@@ -1481,7 +1525,7 @@
       <c r="O10" s="6">
         <v>1014</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="2">
         <v>0</v>
       </c>
       <c r="Q10" s="6">
@@ -1517,7 +1561,7 @@
       <c r="AA10" s="7">
         <v>1009</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AB10" s="2">
         <v>300000</v>
       </c>
       <c r="AC10" s="7">
@@ -1544,8 +1588,14 @@
       <c r="AJ10" s="5">
         <v>100</v>
       </c>
+      <c r="AK10" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL10" s="14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:38">
       <c r="B11" s="2">
         <v>1007</v>
       </c>
@@ -1573,7 +1623,7 @@
       <c r="J11" s="5">
         <v>67170</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="2">
         <v>1011</v>
       </c>
       <c r="L11" s="5">
@@ -1588,7 +1638,7 @@
       <c r="O11" s="6">
         <v>1014</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="2">
         <v>0</v>
       </c>
       <c r="Q11" s="6">
@@ -1624,7 +1674,7 @@
       <c r="AA11" s="7">
         <v>1009</v>
       </c>
-      <c r="AB11" s="14">
+      <c r="AB11" s="2">
         <v>300000</v>
       </c>
       <c r="AC11" s="7">
@@ -1651,8 +1701,14 @@
       <c r="AJ11" s="5">
         <v>100</v>
       </c>
+      <c r="AK11" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL11" s="14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:38">
       <c r="B12" s="2">
         <v>1008</v>
       </c>
@@ -1680,7 +1736,7 @@
       <c r="J12" s="5">
         <v>59600</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="2">
         <v>1011</v>
       </c>
       <c r="L12" s="5">
@@ -1695,7 +1751,7 @@
       <c r="O12" s="6">
         <v>1014</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="2">
         <v>0</v>
       </c>
       <c r="Q12" s="6">
@@ -1731,7 +1787,7 @@
       <c r="AA12" s="7">
         <v>1009</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AB12" s="2">
         <v>300000</v>
       </c>
       <c r="AC12" s="7">
@@ -1758,8 +1814,14 @@
       <c r="AJ12" s="5">
         <v>100</v>
       </c>
+      <c r="AK12" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL12" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:38">
       <c r="B13" s="2">
         <v>1009</v>
       </c>
@@ -1787,7 +1849,7 @@
       <c r="J13" s="5">
         <v>58740</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="2">
         <v>1011</v>
       </c>
       <c r="L13" s="5">
@@ -1802,7 +1864,7 @@
       <c r="O13" s="6">
         <v>1014</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="2">
         <v>0</v>
       </c>
       <c r="Q13" s="6">
@@ -1838,7 +1900,7 @@
       <c r="AA13" s="7">
         <v>1009</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AB13" s="2">
         <v>300000</v>
       </c>
       <c r="AC13" s="7">
@@ -1865,8 +1927,14 @@
       <c r="AJ13" s="5">
         <v>100</v>
       </c>
+      <c r="AK13" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL13" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:38">
       <c r="B14" s="2">
         <v>1010</v>
       </c>
@@ -1894,7 +1962,7 @@
       <c r="J14" s="5">
         <v>58740</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="2">
         <v>1011</v>
       </c>
       <c r="L14" s="5">
@@ -1909,7 +1977,7 @@
       <c r="O14" s="6">
         <v>1014</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="2">
         <v>0</v>
       </c>
       <c r="Q14" s="6">
@@ -1945,7 +2013,7 @@
       <c r="AA14" s="7">
         <v>1009</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="2">
         <v>300000</v>
       </c>
       <c r="AC14" s="7">
@@ -1972,8 +2040,14 @@
       <c r="AJ14" s="5">
         <v>100</v>
       </c>
+      <c r="AK14" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL14" s="14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:38">
       <c r="B15" s="2">
         <v>1011</v>
       </c>
@@ -2001,7 +2075,7 @@
       <c r="J15" s="5">
         <v>67480</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="2">
         <v>1011</v>
       </c>
       <c r="L15" s="5">
@@ -2016,7 +2090,7 @@
       <c r="O15" s="6">
         <v>1014</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="2">
         <v>0</v>
       </c>
       <c r="Q15" s="6">
@@ -2052,7 +2126,7 @@
       <c r="AA15" s="7">
         <v>1009</v>
       </c>
-      <c r="AB15" s="14">
+      <c r="AB15" s="2">
         <v>300000</v>
       </c>
       <c r="AC15" s="7">
@@ -2079,8 +2153,14 @@
       <c r="AJ15" s="5">
         <v>100</v>
       </c>
+      <c r="AK15" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL15" s="14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:38">
       <c r="B16" s="2">
         <v>1012</v>
       </c>
@@ -2108,7 +2188,7 @@
       <c r="J16" s="5">
         <v>67480</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="2">
         <v>1011</v>
       </c>
       <c r="L16" s="5">
@@ -2123,7 +2203,7 @@
       <c r="O16" s="6">
         <v>1014</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="2">
         <v>0</v>
       </c>
       <c r="Q16" s="6">
@@ -2159,7 +2239,7 @@
       <c r="AA16" s="7">
         <v>1009</v>
       </c>
-      <c r="AB16" s="14">
+      <c r="AB16" s="2">
         <v>300000</v>
       </c>
       <c r="AC16" s="7">
@@ -2186,8 +2266,14 @@
       <c r="AJ16" s="5">
         <v>100</v>
       </c>
+      <c r="AK16" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL16" s="14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:38">
       <c r="B17" s="2">
         <v>1013</v>
       </c>
@@ -2215,7 +2301,7 @@
       <c r="J17" s="5">
         <v>67480</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="2">
         <v>1011</v>
       </c>
       <c r="L17" s="5">
@@ -2230,7 +2316,7 @@
       <c r="O17" s="6">
         <v>1014</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="2">
         <v>0</v>
       </c>
       <c r="Q17" s="6">
@@ -2266,7 +2352,7 @@
       <c r="AA17" s="7">
         <v>1009</v>
       </c>
-      <c r="AB17" s="14">
+      <c r="AB17" s="2">
         <v>300000</v>
       </c>
       <c r="AC17" s="7">
@@ -2293,14 +2379,1152 @@
       <c r="AJ17" s="5">
         <v>100</v>
       </c>
+      <c r="AK17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL17" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38">
+      <c r="B18" s="2">
+        <v>1214</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J18" s="5">
+        <v>21600</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L18" s="5">
+        <v>26800</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1012</v>
+      </c>
+      <c r="N18" s="5">
+        <v>-58702</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>10001</v>
+      </c>
+      <c r="R18" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S18" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T18" s="5">
+        <v>500</v>
+      </c>
+      <c r="U18" s="6">
+        <v>10061</v>
+      </c>
+      <c r="V18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W18" s="7">
+        <v>10071</v>
+      </c>
+      <c r="X18" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>10081</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>30000</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>1009</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>300000</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>10021</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>1001</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>10041</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>100</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL18" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38">
+      <c r="B19" s="2">
+        <v>1215</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J19" s="5">
+        <v>56000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L19" s="5">
+        <v>25180</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1012</v>
+      </c>
+      <c r="N19" s="5">
+        <v>-23633</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>10001</v>
+      </c>
+      <c r="R19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S19" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T19" s="5">
+        <v>500</v>
+      </c>
+      <c r="U19" s="6">
+        <v>10061</v>
+      </c>
+      <c r="V19" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W19" s="7">
+        <v>10071</v>
+      </c>
+      <c r="X19" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>10081</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>30000</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>1009</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>300000</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>10021</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>1001</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>10041</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>100</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL19" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38">
+      <c r="B20" s="2">
+        <v>1216</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J20" s="5">
+        <v>36310</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L20" s="5">
+        <v>25180</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1012</v>
+      </c>
+      <c r="N20" s="5">
+        <v>-23634</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>10001</v>
+      </c>
+      <c r="R20" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S20" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T20" s="5">
+        <v>500</v>
+      </c>
+      <c r="U20" s="6">
+        <v>10061</v>
+      </c>
+      <c r="V20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W20" s="7">
+        <v>10071</v>
+      </c>
+      <c r="X20" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>10081</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>30000</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>1009</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>300000</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>10021</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>1001</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>10041</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>100</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL20" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38">
+      <c r="B21" s="2">
+        <v>1217</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J21" s="5">
+        <v>67170</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L21" s="5">
+        <v>25180</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1012</v>
+      </c>
+      <c r="N21" s="5">
+        <v>-40495</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>10001</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S21" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T21" s="5">
+        <v>500</v>
+      </c>
+      <c r="U21" s="6">
+        <v>10061</v>
+      </c>
+      <c r="V21" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W21" s="7">
+        <v>10071</v>
+      </c>
+      <c r="X21" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>10081</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>30000</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>1009</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>300000</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>10021</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>1001</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>10041</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>100</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL21" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38">
+      <c r="B22" s="2">
+        <v>1218</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J22" s="5">
+        <v>59600</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L22" s="5">
+        <v>25800</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1012</v>
+      </c>
+      <c r="N22" s="5">
+        <v>-87866</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>10001</v>
+      </c>
+      <c r="R22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S22" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T22" s="5">
+        <v>500</v>
+      </c>
+      <c r="U22" s="6">
+        <v>10061</v>
+      </c>
+      <c r="V22" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W22" s="7">
+        <v>10071</v>
+      </c>
+      <c r="X22" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>10081</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>30000</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>1009</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>300000</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>10021</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>1001</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>10041</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI22" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>100</v>
+      </c>
+      <c r="AK22" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL22" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38">
+      <c r="B23" s="2">
+        <v>1219</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J23" s="5">
+        <v>58740</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L23" s="5">
+        <v>28100</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1012</v>
+      </c>
+      <c r="N23" s="5">
+        <v>-141407</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>10001</v>
+      </c>
+      <c r="R23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S23" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U23" s="6">
+        <v>10061</v>
+      </c>
+      <c r="V23" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W23" s="7">
+        <v>10071</v>
+      </c>
+      <c r="X23" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>10081</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>30000</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>1009</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>300000</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>10021</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>1001</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG23" s="7">
+        <v>10041</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI23" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>100</v>
+      </c>
+      <c r="AK23" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL23" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38">
+      <c r="B24" s="2">
+        <v>1220</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J24" s="5">
+        <v>58740</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L24" s="5">
+        <v>28100</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1012</v>
+      </c>
+      <c r="N24" s="5">
+        <v>-130408</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>10001</v>
+      </c>
+      <c r="R24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S24" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T24" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U24" s="6">
+        <v>10061</v>
+      </c>
+      <c r="V24" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W24" s="7">
+        <v>10071</v>
+      </c>
+      <c r="X24" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>10081</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>30000</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>1009</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>300000</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>10021</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>1001</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG24" s="7">
+        <v>10041</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI24" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>100</v>
+      </c>
+      <c r="AK24" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL24" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38">
+      <c r="B25" s="2">
+        <v>1221</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J25" s="5">
+        <v>67480</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L25" s="5">
+        <v>28850</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1012</v>
+      </c>
+      <c r="N25" s="5">
+        <v>-130409</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>10001</v>
+      </c>
+      <c r="R25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S25" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U25" s="6">
+        <v>10061</v>
+      </c>
+      <c r="V25" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W25" s="7">
+        <v>10071</v>
+      </c>
+      <c r="X25" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>10081</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>30000</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>1009</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>300000</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>10021</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>1001</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>10041</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>100</v>
+      </c>
+      <c r="AK25" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL25" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38">
+      <c r="B26" s="2">
+        <v>1222</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J26" s="5">
+        <v>67480</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L26" s="5">
+        <v>27510</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1012</v>
+      </c>
+      <c r="N26" s="5">
+        <v>-34791</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>10001</v>
+      </c>
+      <c r="R26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S26" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U26" s="6">
+        <v>10061</v>
+      </c>
+      <c r="V26" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W26" s="7">
+        <v>10071</v>
+      </c>
+      <c r="X26" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>10081</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>30000</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>1009</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>300000</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>10021</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>1001</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG26" s="7">
+        <v>10041</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI26" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>100</v>
+      </c>
+      <c r="AK26" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL26" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38">
+      <c r="B27" s="2">
+        <v>1223</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J27" s="5">
+        <v>67480</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L27" s="5">
+        <v>25900</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1012</v>
+      </c>
+      <c r="N27" s="5">
+        <v>-93811</v>
+      </c>
+      <c r="O27" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>10001</v>
+      </c>
+      <c r="R27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S27" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U27" s="6">
+        <v>10061</v>
+      </c>
+      <c r="V27" s="5">
+        <v>10000</v>
+      </c>
+      <c r="W27" s="7">
+        <v>10071</v>
+      </c>
+      <c r="X27" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>10081</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>30000</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>1009</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>300000</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>10021</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>1001</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG27" s="7">
+        <v>10041</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI27" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>100</v>
+      </c>
+      <c r="AK27" s="7">
+        <v>1015</v>
+      </c>
+      <c r="AL27" s="14">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="AG4:AH4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="I2:AJ2"/>
-    <mergeCell ref="I3:AJ3"/>
+    <mergeCell ref="I1:AL1"/>
+    <mergeCell ref="I2:AL2"/>
+    <mergeCell ref="I3:AL3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
@@ -2312,7 +3536,6 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AE82AB-4ABC-FD49-A22B-F4C8EFD9AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359784C3-BBF9-A24C-ACFF-85A30C33E3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="300" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>Phase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -294,20 +298,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -316,6 +306,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +599,7 @@
   <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -622,235 +626,235 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="10"/>
+      <c r="P4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="8" t="s">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="6" t="s">
+      <c r="S4" s="10"/>
+      <c r="T4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="8" t="s">
+      <c r="U4" s="12"/>
+      <c r="V4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="6" t="s">
+      <c r="W4" s="10"/>
+      <c r="X4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="8" t="s">
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="8" t="s">
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="8" t="s">
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="6" t="s">
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="8" t="s">
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="10" t="s">
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AK4" s="10"/>
+      <c r="AK4" s="14"/>
     </row>
     <row r="5" spans="1:37">
       <c r="B5" s="5">
@@ -886,8 +890,8 @@
       <c r="L5" s="4">
         <v>10061</v>
       </c>
-      <c r="M5" s="3">
-        <v>100000</v>
+      <c r="M5" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="N5" s="5">
         <v>10071</v>
@@ -978,7 +982,7 @@
       <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="4">
@@ -1072,7 +1076,7 @@
       <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="4">
@@ -1166,7 +1170,7 @@
       <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="4">
@@ -1245,12 +1249,12 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
@@ -1275,12 +1279,12 @@
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="5"/>
@@ -1305,12 +1309,12 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
@@ -1335,12 +1339,12 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3"/>
       <c r="J12" s="5"/>
@@ -1365,12 +1369,12 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
       <c r="J13" s="5"/>
@@ -1395,12 +1399,12 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="5"/>
@@ -1425,12 +1429,12 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="5"/>
@@ -1455,12 +1459,12 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
       <c r="J16" s="5"/>
@@ -1485,12 +1489,12 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="2:29">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="4"/>
       <c r="I17" s="3"/>
       <c r="J17" s="5"/>
@@ -1515,12 +1519,12 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="2:29">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
       <c r="J18" s="5"/>
@@ -1762,7 +1766,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
@@ -1780,6 +1783,7 @@
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359784C3-BBF9-A24C-ACFF-85A30C33E3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413E8FDC-6D09-0442-8BF6-DC47E965E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20000</t>
+    <t>10000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1766,11 +1766,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="H1:AK1"/>
     <mergeCell ref="H2:AK2"/>
@@ -1784,6 +1779,11 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413E8FDC-6D09-0442-8BF6-DC47E965E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D3A9EA-D3AC-AD45-8EA4-B2E2A8A0CDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>10000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务NPC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +243,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -281,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,14 +327,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -642,38 +665,38 @@
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
     </row>
     <row r="2" spans="1:37">
       <c r="A2" t="s">
@@ -695,38 +718,38 @@
       <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" t="s">
@@ -740,38 +763,38 @@
         <v>13</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
@@ -795,66 +818,66 @@
       <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="9" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="11" t="s">
+      <c r="O4" s="13"/>
+      <c r="P4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="9" t="s">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="11" t="s">
+      <c r="S4" s="13"/>
+      <c r="T4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="9" t="s">
+      <c r="U4" s="11"/>
+      <c r="V4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="11" t="s">
+      <c r="W4" s="13"/>
+      <c r="X4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="9" t="s">
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="9" t="s">
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="9" t="s">
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="11" t="s">
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="9" t="s">
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="14" t="s">
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AK4" s="14"/>
+      <c r="AK4" s="15"/>
     </row>
     <row r="5" spans="1:37">
       <c r="B5" s="5">
@@ -1249,34 +1272,94 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="3"/>
+      <c r="B9" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>10051</v>
+      </c>
+      <c r="K9" s="3">
+        <v>500</v>
+      </c>
+      <c r="L9" s="4">
+        <v>10061</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="5">
+        <v>10071</v>
+      </c>
+      <c r="O9" s="3">
+        <v>500</v>
+      </c>
+      <c r="P9" s="5">
+        <v>10081</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>30000</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="1"/>
+      <c r="T9" s="5">
+        <v>10021</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1001</v>
+      </c>
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="5">
+        <v>10041</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>1003</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>1015</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37">
       <c r="B10" s="8"/>
@@ -1766,6 +1849,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="H1:AK1"/>
     <mergeCell ref="H2:AK2"/>
@@ -1780,10 +1867,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D3A9EA-D3AC-AD45-8EA4-B2E2A8A0CDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A79317-26B2-CC4E-8B74-DDF1EB6BEBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -642,7 +642,19 @@
     <col min="14" max="15" width="5.1640625" customWidth="1"/>
     <col min="16" max="16" width="6.1640625" customWidth="1"/>
     <col min="17" max="18" width="5.1640625" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
